--- a/data/trans_camb/P29A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>6.747011252896828</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.6891435192673323</v>
+        <v>-0.6891435192673379</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.513882762049096</v>
+        <v>-0.557181169368422</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.842834324095675</v>
+        <v>-4.370437066026182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.1917399800715</v>
+        <v>-13.27016569665834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1744730249098011</v>
+        <v>-0.2669803352770765</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.06890596458608</v>
+        <v>3.351156020725639</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.986905412203014</v>
+        <v>-2.899834885119918</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.25184362807207</v>
+        <v>3.382152025944503</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.504951569246077</v>
+        <v>3.515721581615395</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.618448800040293</v>
+        <v>-4.568027071658583</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.836194682235627</v>
+        <v>9.918983552021574</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.462564901342775</v>
+        <v>6.452751610901672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2171498695705091</v>
+        <v>0.03724639230334955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.071578748590166</v>
+        <v>7.041320614166195</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.38634402943587</v>
+        <v>10.22150462990301</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.803486162312116</v>
+        <v>4.522866277289273</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.887568359568641</v>
+        <v>9.825157030378861</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.711511744421282</v>
+        <v>9.895690391361766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.716345390665219</v>
+        <v>3.305782543233448</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2222531555181803</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.02270106214752604</v>
+        <v>-0.02270106214752623</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02785547951723993</v>
+        <v>-0.010372976866467</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07394427703274581</v>
+        <v>-0.08172523192916423</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2513238517147944</v>
+        <v>-0.251419437848994</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.008604300157764389</v>
+        <v>-0.01463268162467209</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.14987932053738</v>
+        <v>0.1573018945675424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1536132824480048</v>
+        <v>-0.1563802864163228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09703625004536266</v>
+        <v>0.1056450798840522</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.109724016797863</v>
+        <v>0.111973203723159</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1440077130289144</v>
+        <v>-0.1389057670947902</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2169294562811264</v>
+        <v>0.2207953093513986</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.139082288143416</v>
+        <v>0.1398900132748298</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0008023712800932171</v>
+        <v>7.195907963788428e-05</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4407685385940205</v>
+        <v>0.4456073083844934</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6342432810102013</v>
+        <v>0.6379452326553163</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2958568526786965</v>
+        <v>0.2758200021988204</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3456203516407643</v>
+        <v>0.3453877436453455</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3440441876010148</v>
+        <v>0.3473228221845559</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.09411967049250547</v>
+        <v>0.1150271362768755</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.991204297931537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.238754792750957</v>
+        <v>-8.238754792750951</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.133449809727777</v>
@@ -869,7 +869,7 @@
         <v>8.839023020414968</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2900330728577705</v>
+        <v>0.2900330728577732</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.146660377456954</v>
@@ -878,7 +878,7 @@
         <v>4.408492031638639</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.040850937349262</v>
+        <v>-5.040850937349256</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.318758918552037</v>
+        <v>-4.145389369144733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.47794972394523</v>
+        <v>-2.730549307941757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.45219165121535</v>
+        <v>-12.9910955028019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3083690877137492</v>
+        <v>0.6578847011134262</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.775061201557569</v>
+        <v>5.110071854217698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.129322922387164</v>
+        <v>-3.191408244981512</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.128254136953215</v>
+        <v>-1.92714643309207</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.470621048988787</v>
+        <v>1.340096853799194</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.040104040938129</v>
+        <v>-7.752756907107624</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.043120085770427</v>
+        <v>5.101091695804138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.798498797042939</v>
+        <v>6.81989430177419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.025589830745709</v>
+        <v>-3.792524064397389</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.061580465136739</v>
+        <v>8.123809222189236</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.29839859094518</v>
+        <v>12.84355768715895</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.6581208218219</v>
+        <v>3.74719150635584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.081893163728624</v>
+        <v>4.325560203108254</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.375169237842806</v>
+        <v>7.466695460374766</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.913912939998299</v>
+        <v>-1.895170813082534</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.4069305554921059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01335252993192839</v>
+        <v>0.01335252993192852</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.02942773090385521</v>
@@ -983,7 +983,7 @@
         <v>0.1131389204243451</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.129367690579619</v>
+        <v>-0.1293676905796189</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07346597173661187</v>
+        <v>-0.07103585873533337</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04250628383680712</v>
+        <v>-0.04600646698855736</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2305262960315853</v>
+        <v>-0.2216183020015857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01211071875271955</v>
+        <v>0.02379832844445492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.205520790381994</v>
+        <v>0.2151771355021215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1328705786557038</v>
+        <v>-0.1328665308963305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05224829801758242</v>
+        <v>-0.04761039330674723</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03510017043226232</v>
+        <v>0.0342786414263265</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2002030008434385</v>
+        <v>-0.1925821043779595</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09479230106347575</v>
+        <v>0.09557402602702621</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1277697189864931</v>
+        <v>0.1268328779088919</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05965837593411928</v>
+        <v>-0.06999623139970321</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4045376608539072</v>
+        <v>0.3959031015527059</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6231077122207481</v>
+        <v>0.6410523474272469</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1834877528236982</v>
+        <v>0.1916972937129801</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1096241389168056</v>
+        <v>0.1149580223738586</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1966753922497427</v>
+        <v>0.1985782385280611</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05120720921646865</v>
+        <v>-0.05147882727534354</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.342056987953059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-7.826676492623841</v>
+        <v>-7.826676492623852</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.288785828298756</v>
@@ -1083,7 +1083,7 @@
         <v>7.035174775006353</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-4.090876669401617</v>
+        <v>-4.090876669401611</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.8589195412869899</v>
@@ -1092,7 +1092,7 @@
         <v>6.300693739285418</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-6.68156245280308</v>
+        <v>-6.681562452803075</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.834781865235709</v>
+        <v>-2.042377867987351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.711544489147286</v>
+        <v>2.018251384017178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.21400150271103</v>
+        <v>-12.26908977516582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.487299182777679</v>
+        <v>-6.437403717568103</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.432136613830829</v>
+        <v>2.464296756851368</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.657076532767032</v>
+        <v>-8.185514947000836</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.268135426799234</v>
+        <v>-4.238731613809551</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.090228532727153</v>
+        <v>2.67396126063074</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.870665060039265</v>
+        <v>-9.507859758594355</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.430245405941021</v>
+        <v>6.807588420617755</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.926847012814</v>
+        <v>10.79673001849685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.362566177096408</v>
+        <v>-3.519575267852793</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.995432869075668</v>
+        <v>1.919509133894432</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.81923216062388</v>
+        <v>11.65520484148365</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.3918335287180374</v>
+        <v>-0.1483494776435134</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.257025725363164</v>
+        <v>2.324176168097252</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.871976230939685</v>
+        <v>9.566295816795231</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-3.681489294565582</v>
+        <v>-3.730669020775307</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1128462942789537</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1392626146990617</v>
+        <v>-0.1392626146990619</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07734969240509748</v>
@@ -1188,7 +1188,7 @@
         <v>0.2377542704672024</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1382514904335126</v>
+        <v>-0.1382514904335124</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01969689356349106</v>
@@ -1197,7 +1197,7 @@
         <v>0.1444886138844902</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1532227620220217</v>
+        <v>-0.1532227620220216</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04942355225927882</v>
+        <v>-0.03620774073239253</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.02882021246181933</v>
+        <v>0.03484927902092222</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2121921720678904</v>
+        <v>-0.2113465564762624</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2048033873267021</v>
+        <v>-0.2037663193320074</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07651812829166846</v>
+        <v>0.0801246084238998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2410734031807371</v>
+        <v>-0.2591900960593614</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09313187395898473</v>
+        <v>-0.09511506240242172</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0684171351380643</v>
+        <v>0.06174198547387753</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2173183280283935</v>
+        <v>-0.2112216013208125</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1197991443288178</v>
+        <v>0.1274314683433244</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.200057748780557</v>
+        <v>0.1981743685242488</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06161299579587276</v>
+        <v>-0.06195404609221104</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.0727022507907812</v>
+        <v>0.07152442980412259</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4277414481746534</v>
+        <v>0.4271346075896937</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01444549589311162</v>
+        <v>-0.005002641663292282</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05310266137648616</v>
+        <v>0.05329191074720994</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.233449917522611</v>
+        <v>0.2296664994074062</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.08721802692364473</v>
+        <v>-0.08830865608703774</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.1598867066897269</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-8.71343167151149</v>
+        <v>-8.713431671511495</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.534791091151527</v>
+        <v>-9.489834354578596</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.406257194001957</v>
+        <v>-3.677793419649487</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.62261064662353</v>
+        <v>-14.50376404300605</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.88086476636411</v>
+        <v>-10.65095379058811</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.066651376609448</v>
+        <v>-6.626083447592339</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-12.91378555673082</v>
+        <v>-12.43413852381297</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-9.272044574135888</v>
+        <v>-9.101338351960926</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.908151986744806</v>
+        <v>-4.919568495474424</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-12.74737239793383</v>
+        <v>-12.669612849856</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.876236395584751</v>
+        <v>3.9685128052844</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.233843672558271</v>
+        <v>9.478072271313387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.51250373548538</v>
+        <v>-2.581144848501715</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.090240084003279</v>
+        <v>3.758727993598025</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.299604033607841</v>
+        <v>6.792613171663367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.96548984532743</v>
+        <v>-0.4875121996476743</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4804907345888162</v>
+        <v>0.8122362843118559</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.281436875875299</v>
+        <v>4.497428550197599</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-4.150449943891489</v>
+        <v>-4.379637833792419</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.003262649106669402</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1778063395492307</v>
+        <v>-0.1778063395492308</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.156689282121479</v>
+        <v>-0.1539514744877989</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07144007896225871</v>
+        <v>-0.05939988272794184</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.251268703590622</v>
+        <v>-0.2332071347146731</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2711535412995022</v>
+        <v>-0.2729981696223304</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1745599622015832</v>
+        <v>-0.1678679645250155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.31468601981244</v>
+        <v>-0.3076165053057875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1802767034924706</v>
+        <v>-0.1791273969893255</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09521649323234589</v>
+        <v>-0.0951847027543191</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2458758589660001</v>
+        <v>-0.2448700289563263</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.07113776911730313</v>
+        <v>0.07098006426143762</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1662025405410207</v>
+        <v>0.1708360430434039</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.06522613300542091</v>
+        <v>-0.0480855668056694</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09856482891535803</v>
+        <v>0.1193412580566888</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2310066239830405</v>
+        <v>0.2040235719435644</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03264025693481457</v>
+        <v>-0.01637714744683902</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.008962953157286731</v>
+        <v>0.01675099182761789</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1154267461886084</v>
+        <v>0.09708624609443693</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.08762384347791236</v>
+        <v>-0.09369116511751914</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>3.833333857422333</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.882079233545566</v>
+        <v>-3.882079233545571</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.510986364419521</v>
+        <v>-1.534715532516438</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7760197474051784</v>
+        <v>-0.66811480557333</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.03245471820174</v>
+        <v>-9.783335572227204</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.056988848600599</v>
+        <v>-1.176967020224246</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.918290960826516</v>
+        <v>3.746797774362315</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.042922967194913</v>
+        <v>-2.262093871802503</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.9761838993388816</v>
+        <v>-1.263433035488029</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.095254292587371</v>
+        <v>2.051454345715735</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.566494048550577</v>
+        <v>-5.38702039020307</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.78341517333051</v>
+        <v>3.427362193897228</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.458133304275915</v>
+        <v>4.361928430802961</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.6399352734465</v>
+        <v>-4.653619106462598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.241577685737874</v>
+        <v>3.200806600609464</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.366957135762897</v>
+        <v>8.232910112733412</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.754912458864745</v>
+        <v>1.816517035774603</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.547770561093159</v>
+        <v>2.298791173010662</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.502789422341937</v>
+        <v>5.565215601273279</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.259362234363663</v>
+        <v>-2.194725118827122</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.09658238398406133</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.09781054328593526</v>
+        <v>-0.0978105432859354</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02680723140800368</v>
+        <v>-0.02698932623210128</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.01368629574875855</v>
+        <v>-0.01194891864086822</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1763840195545943</v>
+        <v>-0.1745901372900378</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0402908424899529</v>
+        <v>-0.04519188785534513</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1525893197676098</v>
+        <v>0.1463315832494782</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07874963626212816</v>
+        <v>-0.08821961448218819</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02421433289978274</v>
+        <v>-0.03063269021506474</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05076664081477889</v>
+        <v>0.0502234392603667</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1372727912299154</v>
+        <v>-0.1335162868464771</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06976514806234214</v>
+        <v>0.06309958564497696</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08248063032672011</v>
+        <v>0.0810291889649551</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.08571636220677425</v>
+        <v>-0.08600332882101511</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1361746359985034</v>
+        <v>0.1357438541031629</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3534452176494575</v>
+        <v>0.3484571049352834</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07598436820444342</v>
+        <v>0.07758235119949354</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06540632477267501</v>
+        <v>0.05958154834171744</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1410530610378566</v>
+        <v>0.1424961669508933</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05908517400720404</v>
+        <v>-0.05622651885723417</v>
       </c>
     </row>
     <row r="34">
